--- a/spase_narationManGt.py_files/images.xlsx
+++ b/spase_narationManGt.py_files/images.xlsx
@@ -175,13 +175,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -199,7 +199,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3657600" y="381000"/>
+          <a:off x="3657600" y="2095500"/>
           <a:ext cx="2673350" cy="1889125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -207,6 +207,97 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="5715000"/>
+          <a:ext cx="1828800" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;heading&gt; Apa itu Governance? &lt;/heading&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;text&gt; Interaksi antara Pemerintah, Dunia Usaha Swasta, dan Masyarakat yang bersendikan transparansi, akuntabilitas, partisipatif, dsb. &lt;/text&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;figure&gt; Flow Chart &lt;/figure&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;text&gt; Apabila seidi—sendi tersebut dipenuhi, maka Governance akan ‘Good. &lt;/text&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;text&gt; dadang-solhin blogspot.com &lt;/text&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
